--- a/ResultadoEleicoesDistritos/PORTO_MATOSINHOS.xlsx
+++ b/ResultadoEleicoesDistritos/PORTO_MATOSINHOS.xlsx
@@ -597,64 +597,64 @@
         <v>45147</v>
       </c>
       <c r="H2" t="n">
-        <v>1710</v>
+        <v>1588</v>
       </c>
       <c r="I2" t="n">
-        <v>4434</v>
+        <v>4550</v>
       </c>
       <c r="J2" t="n">
-        <v>18789</v>
+        <v>18640</v>
       </c>
       <c r="K2" t="n">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L2" t="n">
-        <v>5091</v>
+        <v>5145</v>
       </c>
       <c r="M2" t="n">
-        <v>310</v>
+        <v>326</v>
       </c>
       <c r="N2" t="n">
-        <v>3261</v>
+        <v>3108</v>
       </c>
       <c r="O2" t="n">
         <v>8</v>
       </c>
       <c r="P2" t="n">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="Q2" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="R2" t="n">
-        <v>245</v>
+        <v>282</v>
       </c>
       <c r="S2" t="n">
-        <v>1897</v>
+        <v>2021</v>
       </c>
       <c r="T2" t="n">
-        <v>3203</v>
+        <v>3241</v>
       </c>
       <c r="U2" t="n">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="V2" t="n">
-        <v>28854</v>
+        <v>28957</v>
       </c>
       <c r="W2" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="X2" t="n">
-        <v>28906</v>
+        <v>28840</v>
       </c>
       <c r="Y2" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="Z2" t="n">
-        <v>429</v>
+        <v>413</v>
       </c>
       <c r="AA2" t="n">
-        <v>172</v>
+        <v>206</v>
       </c>
     </row>
   </sheetData>
